--- a/medicine/Maladies infectieuses/Centre_scientifique_canadien_de_santé_humaine_et_animale/Centre_scientifique_canadien_de_santé_humaine_et_animale.xlsx
+++ b/medicine/Maladies infectieuses/Centre_scientifique_canadien_de_santé_humaine_et_animale/Centre_scientifique_canadien_de_santé_humaine_et_animale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_scientifique_canadien_de_sant%C3%A9_humaine_et_animale</t>
+          <t>Centre_scientifique_canadien_de_santé_humaine_et_animale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre scientifique canadien de santé humaine et animale (CSCHAH) est un complexe de laboratoires de maladies infectieuses situé à Winnipeg, au Manitoba, exploité par le gouvernement du Canada. Cette installation abrite deux laboratoires : le Laboratoire national de microbiologie (en) de l'Agence de la santé publique du Canada[1] et le Centre national des maladies animales exotiques (en) de l'Agence canadienne d'inspection des aliments.
-Alors que la majeure partie de l'espace de laboratoire est dédiée aux laboratoires de niveau de confinement 2 et 3, le CSCSHA est la seule installation au Canada à exploiter des laboratoires de niveau de confinement P4 et est la première installation au monde à avoir des laboratoires de niveau 4 pour humains et animaux sous un même toit[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre scientifique canadien de santé humaine et animale (CSCHAH) est un complexe de laboratoires de maladies infectieuses situé à Winnipeg, au Manitoba, exploité par le gouvernement du Canada. Cette installation abrite deux laboratoires : le Laboratoire national de microbiologie (en) de l'Agence de la santé publique du Canada et le Centre national des maladies animales exotiques (en) de l'Agence canadienne d'inspection des aliments.
+Alors que la majeure partie de l'espace de laboratoire est dédiée aux laboratoires de niveau de confinement 2 et 3, le CSCSHA est la seule installation au Canada à exploiter des laboratoires de niveau de confinement P4 et est la première installation au monde à avoir des laboratoires de niveau 4 pour humains et animaux sous un même toit.
 </t>
         </is>
       </c>
